--- a/OnBoard/output/trust/catch/Catch_Trust_49.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_49.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="G25">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="G26">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="G28">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>37</v>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="G29">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>47</v>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="G30">
-        <v>0.293</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>59</v>
@@ -1626,19 +1626,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Eggs of Raja sp</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>EGGSRAJ</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <v>2.673030303030303</v>
@@ -1667,19 +1667,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I32">
         <v>2.673030303030303</v>
@@ -1708,19 +1708,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eggs of Raja sp</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EGGSRAJ</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="I33">
         <v>2.673030303030303</v>
@@ -1749,19 +1749,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Goneplax rhomboides</t>
+          <t>Modiolus barbatus</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>GONERHO</t>
+          <t>MODIBAR</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <v>2.673030303030303</v>
@@ -1790,19 +1790,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Liocarcinus depurator</t>
+          <t>Parthenope angulifrons</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PARTANG</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.372</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>2.673030303030303</v>
@@ -1831,19 +1831,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Schizaster canaliferus</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>SCHICAN</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.837</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>2.673030303030303</v>
@@ -1872,19 +1872,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Stones NA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>STONES</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>2.673030303030303</v>
@@ -1913,19 +1913,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Parthenope angulifrons</t>
+          <t>Trachythyone elongata</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PARTANG</t>
+          <t>TRACELO</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>2.673030303030303</v>
@@ -1954,16 +1954,16 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Schizaster canaliferus</t>
+          <t>Trachythyone tergestina</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SCHICAN</t>
+          <t>TRACTER</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -1995,226 +1995,21 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G40">
-        <v>1.427</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I40">
-        <v>2.673030303030303</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Stones NA</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>STONES</t>
-        </is>
-      </c>
-      <c r="G41">
-        <v>0.027</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>2.673030303030303</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Trachythyone elongata</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>TRACELO</t>
-        </is>
-      </c>
-      <c r="G42">
-        <v>0.002</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>2.673030303030303</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Trachythyone tergestina</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>TRACTER</t>
-        </is>
-      </c>
-      <c r="G43">
-        <v>0.008</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>2.673030303030303</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Turritella communis</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>TURRCOM</t>
-        </is>
-      </c>
-      <c r="G44">
-        <v>0.016</v>
-      </c>
-      <c r="H44">
-        <v>16</v>
-      </c>
-      <c r="I44">
-        <v>2.673030303030303</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G45">
-        <v>1.138</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
         <v>2.673030303030303</v>
       </c>
     </row>
